--- a/卫生值日分组.xlsx
+++ b/卫生值日分组.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yzh/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yzh/Desktop/Note-of-seed-class/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>队名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,6 +225,13 @@
     <t>第一周</t>
     <rPh sb="0" eb="1">
       <t>di'yi'zhou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二周</t>
+    <rPh sb="0" eb="1">
+      <t>di'er'zhou</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -256,7 +263,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,6 +273,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,19 +295,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -578,7 +592,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" zoomScalePageLayoutView="135" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -592,73 +606,79 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
+      <c r="A3" s="5"/>
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
+      <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="C8" s="6" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -666,25 +686,25 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -692,25 +712,25 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -718,23 +738,23 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
+      <c r="A20" s="4"/>
       <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
+      <c r="A21" s="4"/>
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -742,25 +762,25 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
+      <c r="A23" s="4"/>
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
+      <c r="A24" s="4"/>
       <c r="B24" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
+      <c r="A25" s="4"/>
       <c r="B25" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -768,25 +788,25 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
+      <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
+      <c r="A28" s="4"/>
       <c r="B28" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
+      <c r="A29" s="4"/>
       <c r="B29" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -794,13 +814,13 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
+      <c r="A31" s="4"/>
       <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
+      <c r="A32" s="4"/>
       <c r="B32" s="1" t="s">
         <v>31</v>
       </c>

--- a/卫生值日分组.xlsx
+++ b/卫生值日分组.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>队名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,6 +232,33 @@
     <t>第二周</t>
     <rPh sb="0" eb="1">
       <t>di'er'zhou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三周</t>
+    <rPh sb="0" eb="1">
+      <t>di'san'zhou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四周</t>
+    <rPh sb="0" eb="1">
+      <t>di'si'zhou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发考试消息</t>
+    <rPh sb="0" eb="1">
+      <t>fa</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>kao'shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xiao'xi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -295,20 +322,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -592,7 +620,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" zoomScalePageLayoutView="135" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -606,7 +634,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -617,7 +645,7 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
@@ -626,7 +654,7 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
@@ -637,7 +665,7 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
@@ -646,65 +674,71 @@
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C11" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -712,115 +746,132 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
       <c r="B17" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
       <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
       <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
       <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
+      <c r="E23" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
       <c r="B24" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
       <c r="B25" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="6"/>
       <c r="B27" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="6"/>
       <c r="B28" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="6"/>
       <c r="B29" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="6"/>
       <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="6"/>
       <c r="B32" s="1" t="s">
         <v>31</v>
       </c>

--- a/卫生值日分组.xlsx
+++ b/卫生值日分组.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>队名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -277,6 +277,42 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>guo'qing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第七周</t>
+    <rPh sb="0" eb="1">
+      <t>di</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>qi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发考试消息</t>
+    <rPh sb="0" eb="1">
+      <t>fa</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>kao'shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xiao'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集班费</t>
+    <rPh sb="0" eb="1">
+      <t>shou'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ban'fei</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -308,7 +344,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -333,6 +369,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -346,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -355,13 +403,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -642,15 +692,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" zoomScalePageLayoutView="135" workbookViewId="0">
-      <selection activeCell="D7" activeCellId="2" sqref="E14 D7 D7"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -662,7 +714,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -673,7 +725,7 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
@@ -682,7 +734,7 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
@@ -693,7 +745,7 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
@@ -702,7 +754,7 @@
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -711,14 +763,14 @@
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
@@ -727,14 +779,14 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -743,7 +795,7 @@
       <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -752,162 +804,180 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="8"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
       <c r="B17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="8"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
       <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
       <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+      <c r="F20" s="6"/>
+      <c r="G20" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
         <v>37</v>
       </c>
+      <c r="B21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
       <c r="B22" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
       <c r="B23" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="F23" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
       <c r="B24" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="B25" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>38</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="8"/>
       <c r="B26" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="8"/>
       <c r="B27" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="8"/>
       <c r="B28" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="B29" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
-        <v>39</v>
-      </c>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="8"/>
       <c r="B30" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="8"/>
       <c r="B31" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
-      <c r="B32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:A31"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A18:A20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
